--- a/Resources/data.xlsx
+++ b/Resources/data.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{8872AE0D-580A-4C1F-991B-75426B63B29F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{56A89139-CCFD-4138-BE52-2F1194521572}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{8872AE0D-580A-4C1F-991B-75426B63B29F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B62A781E-FA3C-482C-8BF2-78C457F0C2AB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29865" yWindow="3120" windowWidth="27555" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veritrade" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Veritrade!$A$1:$BD$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Veritrade!$A$1:$BE$217</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3491,9 +3491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
